--- a/biology/Médecine/Dionisio_Andrea_Sancassani/Dionisio_Andrea_Sancassani.xlsx
+++ b/biology/Médecine/Dionisio_Andrea_Sancassani/Dionisio_Andrea_Sancassani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dionisio Andrea Sancassani, né à Scandiano le 7 avril 1659 et mort à Spolète le 11 mai 1738, est un médecin italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Gualtieri en 1659, fit ses études à l’Université de Bologne. Reçu docteur à l’âge de dix-neuf ans, il alla faire sa pratique à Florence, dans l’hospice de Ste-Marie-Nouvelle, et au bout d’un an il revint à Reggiolo, où sa famille s’était retirée depuis quelque temps. Après avoir successivement exercé son art à Gonzague, à Bozolo, à Gazzuolo, à Reggiolo et à Comacchio, il fut appelé en 1718 à la cour de Ferdinand de Gonzague, duc de Guastalla. Il resta auprès de ce prince jusqu’en 1723, époque où, à la suite de quelques désagréments, il recommença sa vie de médecin errant de ville en ville. Comacchio, Fusignagno, Bevagna, Spolète et même Guastalla le reçurent tour à tour, et il fit dans chacune de ces villes un séjour de quelques années. Enfin, arrivé à l’âge de soixante-quatorze ans, il se retira à Comacchio, où il continua cependant d’exercer son art. Frappé d’apoplexie en 1737, il languit quelques mois et mourut le 11 mai de l’année suivante.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phtoes Therapeja cl. viri Jacobi Ripæ medici thesibus exposita a D.-A. Sancassani medico totidem antithesibus contradicta, Guastalla, 1683, in-4° ;
 Polyandrium, nempe dissertationum epistolarium, quibus medica eruditis intersternendo, sepulchralia nonnulla monumenta, tum nova, tum antiqua, ab obscuritatis situ ac squallore vindicata, doctorum criteriis sistuntur, Enneas, cui attexitur Suggrundarii specimen, Ferrare, 1701, in-4°. C’est le prospectus d’un ouvrage historico-médical que l’auteur n’a point publié. Une des dissertations qu’il devait contenir a été imprimée à Venise, en 1792, sous le titre de Notices historiques sur l’église de St-Pierre in Silvis de Bagnacavallo.
